--- a/发货模板.xlsx
+++ b/发货模板.xlsx
@@ -1,30 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24800" windowHeight="13160"/>
+    <workbookView windowWidth="21000" windowHeight="9190"/>
   </bookViews>
   <sheets>
     <sheet name="1123csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>订单号</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>快递公司</t>
     </r>
     <r>
@@ -42,6 +56,9 @@
     <t>快递单号</t>
   </si>
   <si>
+    <t>注意：1、单次批量发货请勿超出5000条记录，如超出5000条，请拆分文件后分别上传</t>
+  </si>
+  <si>
     <t>order_sn</t>
   </si>
   <si>
@@ -51,82 +68,20 @@
     <t>shipping_sn</t>
   </si>
   <si>
-    <t>20150831-220394470</t>
-  </si>
-  <si>
-    <t>顺丰快递</t>
-  </si>
-  <si>
-    <t>20150831-070478496</t>
-  </si>
-  <si>
-    <t>圆通快递</t>
-  </si>
-  <si>
-    <t>20150831-064783864</t>
-  </si>
-  <si>
-    <t>申通快递</t>
-  </si>
-  <si>
-    <t>20150831-654419266</t>
-  </si>
-  <si>
-    <t>20150831-913333812</t>
-  </si>
-  <si>
-    <t>20150831-026742674</t>
-  </si>
-  <si>
-    <t>20150831-373553753</t>
-  </si>
-  <si>
-    <t>20150831-943253363</t>
-  </si>
-  <si>
-    <t>20150831-366789514</t>
-  </si>
-  <si>
-    <t>20150831-568677950</t>
-  </si>
-  <si>
-    <t>中通快递</t>
-  </si>
-  <si>
-    <t>20150831-621493160</t>
-  </si>
-  <si>
-    <t>20150831-005323154</t>
-  </si>
-  <si>
-    <t>20150831-615137769</t>
-  </si>
-  <si>
-    <t>20150831-560115617</t>
-  </si>
-  <si>
-    <t>天天快递</t>
-  </si>
-  <si>
-    <t>20150831-965591238</t>
-  </si>
-  <si>
-    <t>20150830-952367644</t>
-  </si>
-  <si>
-    <t>注意：1、单次批量发货请勿超出5000条记录，如超出5000条，请拆分文件后分别上传</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>2、请不要删除第二行，否则会造成发货上传失败</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,39 +104,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,12 +264,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -203,13 +457,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,23 +715,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -497,25 +1028,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A3" sqref="$A3:$XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="72.1640625" customWidth="1"/>
+    <col min="4" max="4" width="72.1636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,208 +1057,26 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5360335432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5360335433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5360335434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
-        <v>5360335435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5360335436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5360335437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5360335438</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4">
-        <v>5360335439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4">
-        <v>5360335440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4">
-        <v>5360335441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4">
-        <v>5360335442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="4">
-        <v>5360335443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4">
-        <v>5360335444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4">
-        <v>5360335445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4">
-        <v>5360335446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4">
-        <v>5360335447</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>